--- a/va_facility_data_2025-02-20/Troy Bowling Campus - Facility Data.xlsx"; filename*=UTF-8''Troy%20Bowling%20Campus%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Troy Bowling Campus - Facility Data.xlsx"; filename*=UTF-8''Troy%20Bowling%20Campus%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R415a53ebdb1a4a6b92c2535f0ce0aed3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc49bf047b55e49488010fcd0915bfdcb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbed7877003874df6b3a51d0ac5c4e9d9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4a6814e5b0f043d9ab0b6e46fe105a52"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4b2c415610924fe5b94ba168cf52da88"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Racc76e133a614667995cc6b3969cd233"/>
   </x:sheets>
 </x:workbook>
 </file>
